--- a/config_4.27/act_hhl_ty_config.xlsx
+++ b/config_4.27/act_hhl_ty_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -269,10 +269,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>act_009_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_prop_exchange_nor</t>
   </si>
   <si>
@@ -382,6 +378,10 @@
       </rPr>
       <t>,9,10</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_010_hhl_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -868,7 +868,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -931,19 +931,19 @@
         <v>54</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="11">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="G2" s="11">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -975,7 +975,7 @@
         <v>1617638399</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>35</v>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -1059,10 +1059,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="19">
         <v>60000</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -1080,10 +1080,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="19">
         <v>42000</v>
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -1101,10 +1101,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="19">
         <v>30000</v>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -1122,10 +1122,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="18">
         <v>24000</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -1143,10 +1143,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="18">
         <v>12000</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -1164,10 +1164,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="18">
         <v>9000</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -1185,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>44</v>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -1206,10 +1206,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="19">
         <v>3000</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -1227,10 +1227,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="19">
         <v>2800</v>
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1601,36 +1601,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1639,6 +1609,36 @@
   <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1653,13 +1653,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1671,13 +1671,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
